--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\ET_Branch\Excel\StartConfig\RouterTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC470956-B4CB-4A69-8FC6-28509B4A0553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03538A-ED43-49D2-BE06-30AFE4788423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+实际数据库区(合区后的真实区服)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="140">
   <si>
     <t>Id</t>
   </si>
@@ -28,12 +62,18 @@
     <t>数据库地址</t>
   </si>
   <si>
+    <t>物理区</t>
+  </si>
+  <si>
     <t>数据库名</t>
   </si>
   <si>
     <t>DBConnection</t>
   </si>
   <si>
+    <t>PhysicZone</t>
+  </si>
+  <si>
     <t>DBName</t>
   </si>
   <si>
@@ -43,42 +83,419 @@
     <t>string</t>
   </si>
   <si>
-    <t>ET1</t>
-  </si>
-  <si>
-    <t>mongodb://127.0.0.1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由区</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>mongodb://localhost:27017/</t>
+  </si>
+  <si>
+    <t>WJBeta1</t>
+  </si>
+  <si>
+    <t>WJBeta2</t>
+  </si>
+  <si>
+    <t>封测区</t>
+  </si>
+  <si>
+    <t>WJBeta3</t>
+  </si>
+  <si>
+    <t>WJBeta4</t>
+  </si>
+  <si>
+    <t>WJBeta5</t>
+  </si>
+  <si>
+    <t>先锋1</t>
+  </si>
+  <si>
+    <t>12合区34合区</t>
+  </si>
+  <si>
+    <t>WJBeta6</t>
+  </si>
+  <si>
+    <t>先锋2</t>
+  </si>
+  <si>
+    <t>WJBeta7</t>
+  </si>
+  <si>
+    <t>先锋3</t>
+  </si>
+  <si>
+    <t>WJBeta8</t>
+  </si>
+  <si>
+    <t>先锋4</t>
+  </si>
+  <si>
+    <t>WJBeta9</t>
+  </si>
+  <si>
+    <t>先锋5</t>
+  </si>
+  <si>
+    <t>567合区</t>
+  </si>
+  <si>
+    <t>WJBeta10</t>
+  </si>
+  <si>
+    <t>先锋6</t>
+  </si>
+  <si>
+    <t>WJBeta11</t>
+  </si>
+  <si>
+    <t>先锋7</t>
+  </si>
+  <si>
+    <t>WJBeta12</t>
+  </si>
+  <si>
+    <t>兔年大吉</t>
+  </si>
+  <si>
+    <t>WJBeta13</t>
+  </si>
+  <si>
+    <t>玉兔新春</t>
+  </si>
+  <si>
+    <t>WJBeta14</t>
+  </si>
+  <si>
+    <t>元宵佳节</t>
+  </si>
+  <si>
+    <t>WJBeta15</t>
+  </si>
+  <si>
+    <t>金戈铁马</t>
+  </si>
+  <si>
+    <t>WJBeta16</t>
+  </si>
+  <si>
+    <t>世外桃源</t>
+  </si>
+  <si>
+    <t>WJBeta17</t>
+  </si>
+  <si>
+    <t>名扬四海</t>
+  </si>
+  <si>
+    <t>WJBeta18</t>
+  </si>
+  <si>
+    <t>华灯初上</t>
+  </si>
+  <si>
+    <t>WJBeta19</t>
+  </si>
+  <si>
+    <t>灯火阑珊</t>
+  </si>
+  <si>
+    <t>WJBeta20</t>
+  </si>
+  <si>
+    <t>似水流年</t>
+  </si>
+  <si>
+    <t>WJBeta21</t>
+  </si>
+  <si>
+    <t>秋水人家</t>
+  </si>
+  <si>
+    <t>WJBeta22</t>
+  </si>
+  <si>
+    <t>烟雨云烟</t>
+  </si>
+  <si>
+    <t>WJBeta23</t>
+  </si>
+  <si>
+    <t>繁星之梦</t>
+  </si>
+  <si>
+    <t>WJBeta24</t>
+  </si>
+  <si>
+    <t>碧空之歌</t>
+  </si>
+  <si>
+    <t>WJBeta25</t>
+  </si>
+  <si>
+    <t>灰烬使者</t>
+  </si>
+  <si>
+    <t>WJBeta26</t>
+  </si>
+  <si>
+    <t>劳动光荣</t>
+  </si>
+  <si>
+    <t>WJBeta27</t>
+  </si>
+  <si>
+    <t>逐风者</t>
+  </si>
+  <si>
+    <t>WJBeta28</t>
+  </si>
+  <si>
+    <t>命运之剑</t>
+  </si>
+  <si>
+    <t>WJBeta29</t>
+  </si>
+  <si>
+    <t>紫禁之巅</t>
+  </si>
+  <si>
+    <t>WJBeta30</t>
+  </si>
+  <si>
+    <t>天空之城</t>
+  </si>
+  <si>
+    <t>WJBeta31</t>
+  </si>
+  <si>
+    <t>遗忘之海</t>
+  </si>
+  <si>
+    <t>WJBeta32</t>
+  </si>
+  <si>
+    <t>金榜题名</t>
+  </si>
+  <si>
+    <t>WJBeta33</t>
+  </si>
+  <si>
+    <t>鱼跃龙门</t>
+  </si>
+  <si>
+    <t>WJBeta34</t>
+  </si>
+  <si>
+    <t>龙舟竞渡</t>
+  </si>
+  <si>
+    <t>WJBeta35</t>
+  </si>
+  <si>
+    <t>梦境之地</t>
+  </si>
+  <si>
+    <t>WJBeta36</t>
+  </si>
+  <si>
+    <t>叹息森林</t>
+  </si>
+  <si>
+    <t>WJBeta37</t>
+  </si>
+  <si>
+    <t>风之国度</t>
+  </si>
+  <si>
+    <t>WJBeta38</t>
+  </si>
+  <si>
+    <t>燃烧之刃</t>
+  </si>
+  <si>
+    <t>WJBeta39</t>
+  </si>
+  <si>
+    <t>北海之都</t>
+  </si>
+  <si>
+    <t>WJBeta40</t>
+  </si>
+  <si>
+    <t>曙光之城</t>
+  </si>
+  <si>
+    <t>WJBeta41</t>
+  </si>
+  <si>
+    <t>世界之树</t>
+  </si>
+  <si>
+    <t>WJBeta42</t>
+  </si>
+  <si>
+    <t>雷霆之路</t>
+  </si>
+  <si>
+    <t>WJBeta43</t>
+  </si>
+  <si>
+    <t>花开彼岸</t>
+  </si>
+  <si>
+    <t>WJBeta44</t>
+  </si>
+  <si>
+    <t>天涯海角</t>
+  </si>
+  <si>
+    <t>WJBeta45</t>
+  </si>
+  <si>
+    <t>长相思</t>
+  </si>
+  <si>
+    <t>WJBeta46</t>
+  </si>
+  <si>
+    <t>执子之手</t>
+  </si>
+  <si>
+    <t>WJBeta47</t>
+  </si>
+  <si>
+    <t>与子偕老</t>
+  </si>
+  <si>
+    <t>WJBeta48</t>
+  </si>
+  <si>
+    <t>流云若梦</t>
+  </si>
+  <si>
+    <t>WJBeta49</t>
+  </si>
+  <si>
+    <t>欢度国庆</t>
+  </si>
+  <si>
+    <t>WJBeta50</t>
+  </si>
+  <si>
+    <t>WJBeta202(center)</t>
+  </si>
+  <si>
+    <t>#中心服</t>
+  </si>
+  <si>
+    <t>WJBeta203(robot)</t>
+  </si>
+  <si>
+    <t>#机器人</t>
+  </si>
+  <si>
+    <t>迷雾森林</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta51</t>
+  </si>
+  <si>
+    <t>WJBeta52</t>
+  </si>
+  <si>
+    <t>希望之树</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta53</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦境之海</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta54</t>
+  </si>
+  <si>
+    <t>百年风华</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta55</t>
+  </si>
+  <si>
+    <t>盛世如愿</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta56</t>
+  </si>
+  <si>
+    <t>精灵国度</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta57</t>
+  </si>
+  <si>
+    <t>梦回华夏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta58</t>
+  </si>
+  <si>
+    <t>璀璨之境</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta59</t>
+  </si>
+  <si>
+    <t>遗忘森林</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta60</t>
+  </si>
+  <si>
+    <t>希望之光</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta61</t>
+  </si>
+  <si>
+    <t>斗战胜佛</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta62</t>
+  </si>
+  <si>
+    <t>新年快乐</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta63</t>
+  </si>
+  <si>
+    <t>万里华夏</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>WJBeta64</t>
+  </si>
+  <si>
+    <t>繁星之梦</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,7 +508,6 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -99,6 +515,30 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="5"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -108,15 +548,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +559,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -142,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -157,9 +614,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -463,11 +924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -475,16 +936,15 @@
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="3" width="12.625" style="3" customWidth="1"/>
-    <col min="4" max="6" width="21" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="4" max="4" width="41.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="21" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2"/>
+    <col min="8" max="8" width="23.75" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -495,74 +955,1214 @@
         <v>2</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="3:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>7</v>
+      <c r="D6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
       <c r="F7" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3</v>
+      </c>
       <c r="F8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C10" s="3">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>6</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="5">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="3">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="5">
+        <v>9</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="3">
+        <v>9</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="3">
+        <v>12</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="3">
+        <v>12</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="3">
+        <v>13</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="3">
+        <v>14</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="5">
+        <v>15</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="5">
+        <v>12</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="3">
+        <v>16</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="5">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="3">
+        <v>17</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="5">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="3">
+        <v>18</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="5">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="3">
+        <v>19</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="5">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="3">
+        <v>20</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="5">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="3">
+        <v>21</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="3">
+        <v>22</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="5">
+        <v>22</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="3">
+        <v>23</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="5">
+        <v>22</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="3">
+        <v>24</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>22</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="3">
+        <v>25</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="5">
+        <v>22</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="3">
+        <v>26</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="5">
+        <v>22</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="3">
+        <v>27</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" s="5">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" s="3">
+        <v>28</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="5">
+        <v>22</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" s="3">
+        <v>29</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" s="5">
+        <v>22</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" s="3">
+        <v>30</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="5">
+        <v>22</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="3">
+        <v>31</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="5">
+        <v>22</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="3">
+        <v>32</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="5">
+        <v>32</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="3">
+        <v>33</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="5">
+        <v>32</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="3">
+        <v>34</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="5">
+        <v>32</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="3">
+        <v>35</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40" s="5">
+        <v>32</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="3">
+        <v>36</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="5">
+        <v>32</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="3">
+        <v>37</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="5">
+        <v>32</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="3">
+        <v>38</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5">
+        <v>32</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="3">
+        <v>39</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="5">
+        <v>32</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="3">
+        <v>40</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="5">
+        <v>40</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H45" s="6"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="3">
+        <v>41</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" s="5">
+        <v>40</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="3">
+        <v>42</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E47" s="5">
+        <v>40</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="3">
+        <v>43</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" s="5">
+        <v>40</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="3">
+        <v>44</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="5">
+        <v>40</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H49" s="6"/>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="3">
+        <v>45</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" s="5">
+        <v>40</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="6"/>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="3">
+        <v>46</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" s="5">
+        <v>40</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H51" s="6"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="3">
+        <v>47</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="5">
+        <v>40</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C53" s="3">
+        <v>48</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="5">
+        <v>48</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C54" s="3">
+        <v>49</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" s="5">
+        <v>48</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C55" s="3">
+        <v>50</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55" s="5">
+        <v>48</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="3">
+        <v>51</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="5">
+        <v>48</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="3">
+        <v>52</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="5">
+        <v>52</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="3">
+        <v>53</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="5">
+        <v>52</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="3">
+        <v>54</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="5">
+        <v>54</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="3">
+        <v>55</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="5">
+        <v>54</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="3">
+        <v>56</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="5">
+        <v>56</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H61" s="6"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="3">
+        <v>57</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="5">
+        <v>56</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H62" s="6"/>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="3">
+        <v>58</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="5">
+        <v>58</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="3">
+        <v>59</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="5">
+        <v>58</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C65" s="3">
+        <v>60</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="5">
+        <v>60</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="66" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C66" s="3">
+        <v>61</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="5">
+        <v>61</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C67" s="3">
+        <v>62</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="5">
+        <v>62</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C68" s="3">
+        <v>63</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="5">
+        <v>63</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C69" s="3">
+        <v>64</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="5">
+        <v>64</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="70" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C70" s="3">
+        <v>202</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="5">
+        <v>202</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C71" s="3">
+        <v>203</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="5">
+        <v>203</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\StartConfig\Localhost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\Unity\Assets\Config\Excel\StartConfig\Localhost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D03538A-ED43-49D2-BE06-30AFE4788423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A3B452B-BDCA-43F8-A47C-C74C00760E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,307 +86,151 @@
     <t>mongodb://localhost:27017/</t>
   </si>
   <si>
-    <t>WJBeta1</t>
-  </si>
-  <si>
-    <t>WJBeta2</t>
-  </si>
-  <si>
     <t>封测区</t>
   </si>
   <si>
-    <t>WJBeta3</t>
-  </si>
-  <si>
-    <t>WJBeta4</t>
-  </si>
-  <si>
-    <t>WJBeta5</t>
-  </si>
-  <si>
     <t>先锋1</t>
   </si>
   <si>
     <t>12合区34合区</t>
   </si>
   <si>
-    <t>WJBeta6</t>
-  </si>
-  <si>
     <t>先锋2</t>
   </si>
   <si>
-    <t>WJBeta7</t>
-  </si>
-  <si>
     <t>先锋3</t>
   </si>
   <si>
-    <t>WJBeta8</t>
-  </si>
-  <si>
     <t>先锋4</t>
   </si>
   <si>
-    <t>WJBeta9</t>
-  </si>
-  <si>
     <t>先锋5</t>
   </si>
   <si>
     <t>567合区</t>
   </si>
   <si>
-    <t>WJBeta10</t>
-  </si>
-  <si>
     <t>先锋6</t>
   </si>
   <si>
-    <t>WJBeta11</t>
-  </si>
-  <si>
     <t>先锋7</t>
   </si>
   <si>
-    <t>WJBeta12</t>
-  </si>
-  <si>
     <t>兔年大吉</t>
   </si>
   <si>
-    <t>WJBeta13</t>
-  </si>
-  <si>
     <t>玉兔新春</t>
   </si>
   <si>
-    <t>WJBeta14</t>
-  </si>
-  <si>
     <t>元宵佳节</t>
   </si>
   <si>
-    <t>WJBeta15</t>
-  </si>
-  <si>
     <t>金戈铁马</t>
   </si>
   <si>
-    <t>WJBeta16</t>
-  </si>
-  <si>
     <t>世外桃源</t>
   </si>
   <si>
-    <t>WJBeta17</t>
-  </si>
-  <si>
     <t>名扬四海</t>
   </si>
   <si>
-    <t>WJBeta18</t>
-  </si>
-  <si>
     <t>华灯初上</t>
   </si>
   <si>
-    <t>WJBeta19</t>
-  </si>
-  <si>
     <t>灯火阑珊</t>
   </si>
   <si>
-    <t>WJBeta20</t>
-  </si>
-  <si>
     <t>似水流年</t>
   </si>
   <si>
-    <t>WJBeta21</t>
-  </si>
-  <si>
     <t>秋水人家</t>
   </si>
   <si>
-    <t>WJBeta22</t>
-  </si>
-  <si>
     <t>烟雨云烟</t>
   </si>
   <si>
-    <t>WJBeta23</t>
-  </si>
-  <si>
     <t>繁星之梦</t>
   </si>
   <si>
-    <t>WJBeta24</t>
-  </si>
-  <si>
     <t>碧空之歌</t>
   </si>
   <si>
-    <t>WJBeta25</t>
-  </si>
-  <si>
     <t>灰烬使者</t>
   </si>
   <si>
-    <t>WJBeta26</t>
-  </si>
-  <si>
     <t>劳动光荣</t>
   </si>
   <si>
-    <t>WJBeta27</t>
-  </si>
-  <si>
     <t>逐风者</t>
   </si>
   <si>
-    <t>WJBeta28</t>
-  </si>
-  <si>
     <t>命运之剑</t>
   </si>
   <si>
-    <t>WJBeta29</t>
-  </si>
-  <si>
     <t>紫禁之巅</t>
   </si>
   <si>
-    <t>WJBeta30</t>
-  </si>
-  <si>
     <t>天空之城</t>
   </si>
   <si>
-    <t>WJBeta31</t>
-  </si>
-  <si>
     <t>遗忘之海</t>
   </si>
   <si>
-    <t>WJBeta32</t>
-  </si>
-  <si>
     <t>金榜题名</t>
   </si>
   <si>
-    <t>WJBeta33</t>
-  </si>
-  <si>
     <t>鱼跃龙门</t>
   </si>
   <si>
-    <t>WJBeta34</t>
-  </si>
-  <si>
     <t>龙舟竞渡</t>
   </si>
   <si>
-    <t>WJBeta35</t>
-  </si>
-  <si>
     <t>梦境之地</t>
   </si>
   <si>
-    <t>WJBeta36</t>
-  </si>
-  <si>
     <t>叹息森林</t>
   </si>
   <si>
-    <t>WJBeta37</t>
-  </si>
-  <si>
     <t>风之国度</t>
   </si>
   <si>
-    <t>WJBeta38</t>
-  </si>
-  <si>
     <t>燃烧之刃</t>
   </si>
   <si>
-    <t>WJBeta39</t>
-  </si>
-  <si>
     <t>北海之都</t>
   </si>
   <si>
-    <t>WJBeta40</t>
-  </si>
-  <si>
     <t>曙光之城</t>
   </si>
   <si>
-    <t>WJBeta41</t>
-  </si>
-  <si>
     <t>世界之树</t>
   </si>
   <si>
-    <t>WJBeta42</t>
-  </si>
-  <si>
     <t>雷霆之路</t>
   </si>
   <si>
-    <t>WJBeta43</t>
-  </si>
-  <si>
     <t>花开彼岸</t>
   </si>
   <si>
-    <t>WJBeta44</t>
-  </si>
-  <si>
     <t>天涯海角</t>
   </si>
   <si>
-    <t>WJBeta45</t>
-  </si>
-  <si>
     <t>长相思</t>
   </si>
   <si>
-    <t>WJBeta46</t>
-  </si>
-  <si>
     <t>执子之手</t>
   </si>
   <si>
-    <t>WJBeta47</t>
-  </si>
-  <si>
     <t>与子偕老</t>
   </si>
   <si>
-    <t>WJBeta48</t>
-  </si>
-  <si>
     <t>流云若梦</t>
   </si>
   <si>
-    <t>WJBeta49</t>
-  </si>
-  <si>
     <t>欢度国庆</t>
   </si>
   <si>
-    <t>WJBeta50</t>
-  </si>
-  <si>
-    <t>WJBeta202(center)</t>
-  </si>
-  <si>
     <t>#中心服</t>
-  </si>
-  <si>
-    <t>WJBeta203(robot)</t>
   </si>
   <si>
     <t>#机器人</t>
@@ -396,98 +240,258 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta51</t>
-  </si>
-  <si>
-    <t>WJBeta52</t>
-  </si>
-  <si>
     <t>希望之树</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta53</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>梦境之海</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta54</t>
-  </si>
-  <si>
     <t>百年风华</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta55</t>
-  </si>
-  <si>
     <t>盛世如愿</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta56</t>
-  </si>
-  <si>
     <t>精灵国度</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta57</t>
-  </si>
-  <si>
     <t>梦回华夏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta58</t>
-  </si>
-  <si>
     <t>璀璨之境</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta59</t>
-  </si>
-  <si>
     <t>遗忘森林</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta60</t>
-  </si>
-  <si>
     <t>希望之光</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta61</t>
-  </si>
-  <si>
     <t>斗战胜佛</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta62</t>
-  </si>
-  <si>
     <t>新年快乐</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta63</t>
-  </si>
-  <si>
     <t>万里华夏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>WJBeta64</t>
-  </si>
-  <si>
     <t>繁星之梦</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJBeta1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJBeta2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJBeta3</t>
+  </si>
+  <si>
+    <t>MJBeta4</t>
+  </si>
+  <si>
+    <t>MJBeta5</t>
+  </si>
+  <si>
+    <t>MJBeta6</t>
+  </si>
+  <si>
+    <t>MJBeta7</t>
+  </si>
+  <si>
+    <t>MJBeta8</t>
+  </si>
+  <si>
+    <t>MJBeta9</t>
+  </si>
+  <si>
+    <t>MJBeta10</t>
+  </si>
+  <si>
+    <t>MJBeta11</t>
+  </si>
+  <si>
+    <t>MJBeta12</t>
+  </si>
+  <si>
+    <t>MJBeta13</t>
+  </si>
+  <si>
+    <t>MJBeta14</t>
+  </si>
+  <si>
+    <t>MJBeta15</t>
+  </si>
+  <si>
+    <t>MJBeta16</t>
+  </si>
+  <si>
+    <t>MJBeta17</t>
+  </si>
+  <si>
+    <t>MJBeta18</t>
+  </si>
+  <si>
+    <t>MJBeta19</t>
+  </si>
+  <si>
+    <t>MJBeta20</t>
+  </si>
+  <si>
+    <t>MJBeta21</t>
+  </si>
+  <si>
+    <t>MJBeta22</t>
+  </si>
+  <si>
+    <t>MJBeta23</t>
+  </si>
+  <si>
+    <t>MJBeta24</t>
+  </si>
+  <si>
+    <t>MJBeta25</t>
+  </si>
+  <si>
+    <t>MJBeta26</t>
+  </si>
+  <si>
+    <t>MJBeta27</t>
+  </si>
+  <si>
+    <t>MJBeta28</t>
+  </si>
+  <si>
+    <t>MJBeta29</t>
+  </si>
+  <si>
+    <t>MJBeta30</t>
+  </si>
+  <si>
+    <t>MJBeta31</t>
+  </si>
+  <si>
+    <t>MJBeta32</t>
+  </si>
+  <si>
+    <t>MJBeta33</t>
+  </si>
+  <si>
+    <t>MJBeta34</t>
+  </si>
+  <si>
+    <t>MJBeta35</t>
+  </si>
+  <si>
+    <t>MJBeta36</t>
+  </si>
+  <si>
+    <t>MJBeta37</t>
+  </si>
+  <si>
+    <t>MJBeta38</t>
+  </si>
+  <si>
+    <t>MJBeta39</t>
+  </si>
+  <si>
+    <t>MJBeta40</t>
+  </si>
+  <si>
+    <t>MJBeta41</t>
+  </si>
+  <si>
+    <t>MJBeta42</t>
+  </si>
+  <si>
+    <t>MJBeta43</t>
+  </si>
+  <si>
+    <t>MJBeta44</t>
+  </si>
+  <si>
+    <t>MJBeta45</t>
+  </si>
+  <si>
+    <t>MJBeta46</t>
+  </si>
+  <si>
+    <t>MJBeta47</t>
+  </si>
+  <si>
+    <t>MJBeta48</t>
+  </si>
+  <si>
+    <t>MJBeta49</t>
+  </si>
+  <si>
+    <t>MJBeta50</t>
+  </si>
+  <si>
+    <t>MJBeta51</t>
+  </si>
+  <si>
+    <t>MJBeta52</t>
+  </si>
+  <si>
+    <t>MJBeta53</t>
+  </si>
+  <si>
+    <t>MJBeta54</t>
+  </si>
+  <si>
+    <t>MJBeta55</t>
+  </si>
+  <si>
+    <t>MJBeta56</t>
+  </si>
+  <si>
+    <t>MJBeta57</t>
+  </si>
+  <si>
+    <t>MJBeta58</t>
+  </si>
+  <si>
+    <t>MJBeta59</t>
+  </si>
+  <si>
+    <t>MJBeta60</t>
+  </si>
+  <si>
+    <t>MJBeta61</t>
+  </si>
+  <si>
+    <t>MJBeta62</t>
+  </si>
+  <si>
+    <t>MJBeta63</t>
+  </si>
+  <si>
+    <t>MJBeta64</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJBeta202(center)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MJBeta203(robot)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -927,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
@@ -997,7 +1001,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -1011,10 +1015,10 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -1028,10 +1032,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -1045,10 +1049,10 @@
         <v>3</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -1062,13 +1066,13 @@
         <v>5</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -1082,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -1099,10 +1103,10 @@
         <v>5</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.3">
@@ -1116,10 +1120,10 @@
         <v>5</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.3">
@@ -1133,13 +1137,13 @@
         <v>9</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.3">
@@ -1153,10 +1157,10 @@
         <v>9</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>27</v>
+        <v>83</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.3">
@@ -1170,10 +1174,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
@@ -1187,10 +1191,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -1205,10 +1209,10 @@
         <v>12</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -1223,10 +1227,10 @@
         <v>12</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -1241,10 +1245,10 @@
         <v>12</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -1259,10 +1263,10 @@
         <v>12</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="H21" s="6"/>
     </row>
@@ -1277,10 +1281,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -1295,10 +1299,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H23" s="7"/>
     </row>
@@ -1313,10 +1317,10 @@
         <v>12</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="H24" s="7"/>
     </row>
@@ -1331,10 +1335,10 @@
         <v>12</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -1349,10 +1353,10 @@
         <v>12</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="H26" s="6"/>
     </row>
@@ -1367,10 +1371,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="H27" s="8"/>
     </row>
@@ -1385,10 +1389,10 @@
         <v>22</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -1403,10 +1407,10 @@
         <v>22</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="H29" s="8"/>
     </row>
@@ -1421,10 +1425,10 @@
         <v>22</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -1439,10 +1443,10 @@
         <v>22</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="H31" s="9"/>
     </row>
@@ -1457,10 +1461,10 @@
         <v>22</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="H32" s="9"/>
     </row>
@@ -1475,10 +1479,10 @@
         <v>22</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="H33" s="9"/>
     </row>
@@ -1493,10 +1497,10 @@
         <v>22</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="H34" s="8"/>
     </row>
@@ -1511,10 +1515,10 @@
         <v>22</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="H35" s="9"/>
     </row>
@@ -1529,10 +1533,10 @@
         <v>22</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="H36" s="9"/>
     </row>
@@ -1547,10 +1551,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="H37" s="11"/>
     </row>
@@ -1565,10 +1569,10 @@
         <v>32</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="H38" s="11"/>
     </row>
@@ -1583,10 +1587,10 @@
         <v>32</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="H39" s="11"/>
     </row>
@@ -1601,10 +1605,10 @@
         <v>32</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="H40" s="11"/>
     </row>
@@ -1619,10 +1623,10 @@
         <v>32</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="H41" s="11"/>
     </row>
@@ -1637,10 +1641,10 @@
         <v>32</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="H42" s="11"/>
     </row>
@@ -1655,10 +1659,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="H43" s="12"/>
     </row>
@@ -1673,10 +1677,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H44" s="12"/>
     </row>
@@ -1691,10 +1695,10 @@
         <v>40</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -1709,10 +1713,10 @@
         <v>40</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -1727,10 +1731,10 @@
         <v>40</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -1745,10 +1749,10 @@
         <v>40</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>94</v>
+        <v>51</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -1763,10 +1767,10 @@
         <v>40</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="H49" s="6"/>
     </row>
@@ -1781,10 +1785,10 @@
         <v>40</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>98</v>
+        <v>53</v>
       </c>
       <c r="H50" s="6"/>
     </row>
@@ -1799,10 +1803,10 @@
         <v>40</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="H51" s="6"/>
     </row>
@@ -1817,10 +1821,10 @@
         <v>40</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="H52" s="6"/>
     </row>
@@ -1835,10 +1839,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="H53" s="10"/>
     </row>
@@ -1853,10 +1857,10 @@
         <v>48</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>106</v>
+        <v>57</v>
       </c>
       <c r="H54" s="10"/>
     </row>
@@ -1871,10 +1875,10 @@
         <v>48</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H55" s="10"/>
     </row>
@@ -1889,10 +1893,10 @@
         <v>48</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="H56" s="10"/>
     </row>
@@ -1907,10 +1911,10 @@
         <v>52</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="H57" s="6"/>
     </row>
@@ -1925,10 +1929,10 @@
         <v>52</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="H58" s="6"/>
     </row>
@@ -1943,10 +1947,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="H59" s="11"/>
     </row>
@@ -1961,10 +1965,10 @@
         <v>54</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="H60" s="11"/>
     </row>
@@ -1979,10 +1983,10 @@
         <v>56</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>123</v>
+        <v>65</v>
       </c>
       <c r="H61" s="6"/>
     </row>
@@ -1997,10 +2001,10 @@
         <v>56</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="H62" s="6"/>
     </row>
@@ -2015,10 +2019,10 @@
         <v>58</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="H63" s="11"/>
     </row>
@@ -2033,10 +2037,10 @@
         <v>58</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>129</v>
+        <v>68</v>
       </c>
       <c r="H64" s="11"/>
     </row>
@@ -2051,10 +2055,10 @@
         <v>60</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="3:7" x14ac:dyDescent="0.3">
@@ -2068,10 +2072,10 @@
         <v>61</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="3:7" x14ac:dyDescent="0.3">
@@ -2085,10 +2089,10 @@
         <v>62</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="3:7" x14ac:dyDescent="0.3">
@@ -2105,7 +2109,7 @@
         <v>136</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="3:7" x14ac:dyDescent="0.3">
@@ -2119,10 +2123,10 @@
         <v>64</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>139</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="3:7" x14ac:dyDescent="0.3">
@@ -2136,10 +2140,10 @@
         <v>202</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="3:7" x14ac:dyDescent="0.3">
@@ -2153,10 +2157,10 @@
         <v>203</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>Id</t>
   </si>
@@ -94,19 +94,22 @@
     <t>MJBeta1</t>
   </si>
   <si>
+    <t>MJBeta2</t>
+  </si>
+  <si>
     <t>MJBeta3</t>
   </si>
   <si>
     <t>路由区</t>
   </si>
   <si>
-    <t>MJBeta202(center)</t>
+    <t>MJBeta1000(center)</t>
   </si>
   <si>
     <t>#中心服</t>
   </si>
   <si>
-    <t>MJBeta203(robot)</t>
+    <t>MJBeta1001(robot)</t>
   </si>
   <si>
     <t>#机器人</t>
@@ -288,12 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1116,10 +1119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G9"/>
+  <dimension ref="C3:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1191,55 +1194,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
-      <c r="C7" s="3">
-        <v>3</v>
+    <row r="7" s="1" customFormat="1" spans="3:6">
+      <c r="C7" s="5">
+        <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:7">
       <c r="C8" s="3">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="5">
-        <v>202</v>
+        <v>3</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="3">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="5">
-        <v>203</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="10" spans="3:7">
+      <c r="C10" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1001</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>16</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -100,19 +100,22 @@
     <t>MJBeta3</t>
   </si>
   <si>
+    <t>MJBeta1000(center)</t>
+  </si>
+  <si>
+    <t>#中心服</t>
+  </si>
+  <si>
+    <t>MJBeta1001(robot)</t>
+  </si>
+  <si>
+    <t>#机器人</t>
+  </si>
+  <si>
+    <t>MJBeta1002(router)</t>
+  </si>
+  <si>
     <t>路由区</t>
-  </si>
-  <si>
-    <t>MJBeta1000(center)</t>
-  </si>
-  <si>
-    <t>#中心服</t>
-  </si>
-  <si>
-    <t>MJBeta1001(robot)</t>
-  </si>
-  <si>
-    <t>#机器人</t>
   </si>
 </sst>
 </file>
@@ -291,12 +294,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1119,10 +1122,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G10"/>
+  <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1208,7 +1211,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:6">
       <c r="C8" s="3">
         <v>3</v>
       </c>
@@ -1220,9 +1223,6 @@
       </c>
       <c r="F8" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="3:7">
@@ -1236,10 +1236,10 @@
         <v>1000</v>
       </c>
       <c r="F9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="3:7">
@@ -1253,11 +1253,33 @@
         <v>1001</v>
       </c>
       <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
+    </row>
+    <row r="11" spans="3:7">
+      <c r="C11" s="3">
+        <v>1002</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1002</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartZoneConfig@s.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Id</t>
   </si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>路由区</t>
+  </si>
+  <si>
+    <t>MJBeta1011</t>
+  </si>
+  <si>
+    <t>版号区</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1131,7 @@
   <dimension ref="C3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
@@ -1276,10 +1282,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="4:6">
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+    <row r="12" spans="3:7">
+      <c r="C12" s="3">
+        <v>1011</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1011</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
